--- a/backend/data/finansirovanie.xlsx
+++ b/backend/data/finansirovanie.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Отчетный период </t>
-  </si>
-  <si>
     <t>Срок предоставления</t>
   </si>
   <si>
@@ -75,13 +72,16 @@
   </si>
   <si>
     <t>Не актуализировано</t>
+  </si>
+  <si>
+    <t>Отчетный период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,9 +162,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -157,6 +169,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,104 +461,105 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="8">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/finansirovanie.xlsx
+++ b/backend/data/finansirovanie.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Срок предоставления</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Отчетный период</t>
+  </si>
+  <si>
+    <t>3 квартал 2025</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +544,7 @@
     </row>
     <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
